--- a/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
+++ b/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement_Traceability_Matrix" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>Functional Requirement</t>
   </si>
@@ -45,6 +45,171 @@
   <si>
     <t>ID 
 Functional Requirement</t>
+  </si>
+  <si>
+    <t>View newsletter</t>
+  </si>
+  <si>
+    <t>Create newsletter</t>
+  </si>
+  <si>
+    <t>Edit newsletter</t>
+  </si>
+  <si>
+    <t>Delete newsletter</t>
+  </si>
+  <si>
+    <t>Preview newsletter</t>
+  </si>
+  <si>
+    <t>Approve  newsletter</t>
+  </si>
+  <si>
+    <t>Down newsletter</t>
+  </si>
+  <si>
+    <t>Find newsletter</t>
+  </si>
+  <si>
+    <t>Transfer newsletter</t>
+  </si>
+  <si>
+    <t>Sort newsletter</t>
+  </si>
+  <si>
+    <t>Authorize subordinate</t>
+  </si>
+  <si>
+    <t>View catalog</t>
+  </si>
+  <si>
+    <t>Create catalog</t>
+  </si>
+  <si>
+    <t>Edit catalog</t>
+  </si>
+  <si>
+    <t>Delete catalog</t>
+  </si>
+  <si>
+    <t>Sort catalog</t>
+  </si>
+  <si>
+    <t>View question</t>
+  </si>
+  <si>
+    <t>Find question</t>
+  </si>
+  <si>
+    <t>Create question</t>
+  </si>
+  <si>
+    <t>Delete question</t>
+  </si>
+  <si>
+    <t>Create answer</t>
+  </si>
+  <si>
+    <t>Send mail</t>
+  </si>
+  <si>
+    <t>View history</t>
+  </si>
+  <si>
+    <t>Add into Q&amp;A dictionary</t>
+  </si>
+  <si>
+    <t>Delete Q&amp;A in dictionary</t>
+  </si>
+  <si>
+    <t>Newsletter module</t>
+  </si>
+  <si>
+    <t>Catalog module</t>
+  </si>
+  <si>
+    <t>Q&amp;A module</t>
+  </si>
+  <si>
+    <t>FR1</t>
+  </si>
+  <si>
+    <t>FR2</t>
+  </si>
+  <si>
+    <t>FR3</t>
+  </si>
+  <si>
+    <t>FR4</t>
+  </si>
+  <si>
+    <t>FR5</t>
+  </si>
+  <si>
+    <t>FR6</t>
+  </si>
+  <si>
+    <t>FR7</t>
+  </si>
+  <si>
+    <t>FR8</t>
+  </si>
+  <si>
+    <t>FR9</t>
+  </si>
+  <si>
+    <t>FR10</t>
+  </si>
+  <si>
+    <t>FR11</t>
+  </si>
+  <si>
+    <t>FR12</t>
+  </si>
+  <si>
+    <t>FR13</t>
+  </si>
+  <si>
+    <t>FR14</t>
+  </si>
+  <si>
+    <t>FR15</t>
+  </si>
+  <si>
+    <t>FR16</t>
+  </si>
+  <si>
+    <t>FR17</t>
+  </si>
+  <si>
+    <t>FR18</t>
+  </si>
+  <si>
+    <t>FR19</t>
+  </si>
+  <si>
+    <t>FR20</t>
+  </si>
+  <si>
+    <t>FR21</t>
+  </si>
+  <si>
+    <t>FR22</t>
+  </si>
+  <si>
+    <t>FR23</t>
+  </si>
+  <si>
+    <t>FR24</t>
+  </si>
+  <si>
+    <t>FR25</t>
+  </si>
+  <si>
+    <t>AS_RE_OperationRequirement</t>
+  </si>
+  <si>
+    <t>AS_RE_ArchitectureDriverSpecification</t>
   </si>
 </sst>
 </file>
@@ -54,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +267,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +292,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,36 +308,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.59999389629810485"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -170,26 +326,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -200,16 +343,14 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,43 +398,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,19 +762,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" customWidth="1"/>
     <col min="8" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="15.5703125" style="1" customWidth="1"/>
     <col min="258" max="258" width="31.140625" style="1" customWidth="1"/>
@@ -1154,282 +1283,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="11"/>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -1559,7 +1988,12 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"Newsletter module,Catalog module,Q&amp;A module"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
+++ b/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Requirement_Traceability_Matrix!$A$5:$G$26</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -398,9 +398,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,6 +420,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,7 +763,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,580 +1283,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21" t="s">
+      <c r="C12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21" t="s">
+      <c r="C14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="24" t="s">
+      <c r="F21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21" t="s">
+      <c r="C22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="F22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="F23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21" t="s">
+      <c r="C24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="24" t="s">
+      <c r="F24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="F25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="F26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="21" t="s">
+      <c r="C27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="21" t="s">
+      <c r="C28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="21" t="s">
+      <c r="C29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="21" t="s">
+      <c r="C30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>35</v>
       </c>
     </row>

--- a/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
+++ b/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
@@ -279,7 +279,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,7 +294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,6 +416,9 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,10 +434,37 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,7 +805,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,33 +1325,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -1336,527 +1378,527 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="F15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="23" t="s">
+      <c r="F18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="23" t="s">
+      <c r="F20" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="s">
+      <c r="C22" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="F22" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="s">
+      <c r="C23" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="23" t="s">
+      <c r="F23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="s">
+      <c r="C24" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="23" t="s">
+      <c r="F24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="s">
+      <c r="C25" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="s">
+      <c r="C26" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="20" t="s">
+      <c r="C27" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="20" t="s">
+      <c r="C28" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="20" t="s">
+      <c r="C29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="23" t="s">
+      <c r="F29" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="20" t="s">
+      <c r="C30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="F30" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>35</v>
       </c>
     </row>

--- a/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
+++ b/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Requirement_Traceability_Matrix" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Requirement_Traceability_Matrix!$A$5:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Requirement_Traceability_Matrix!$A$5:$G$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>Functional Requirement</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>AS_RE_ArchitectureDriverSpecification</t>
+  </si>
+  <si>
+    <t>FR26</t>
+  </si>
+  <si>
+    <t>Post newsletter</t>
   </si>
 </sst>
 </file>
@@ -416,9 +422,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,6 +468,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,33 +1331,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -1378,545 +1384,557 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21" t="s">
+      <c r="C13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="C14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21" t="s">
+      <c r="C15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
+      <c r="C16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="s">
+      <c r="C17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="31" t="s">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31" t="s">
+      <c r="C18" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="34" t="s">
+      <c r="F18" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="31" t="s">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31" t="s">
+      <c r="C19" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="34" t="s">
+      <c r="F19" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="31" t="s">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31" t="s">
+      <c r="C20" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="34" t="s">
+      <c r="F20" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="31" t="s">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31" t="s">
+      <c r="C21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="34" t="s">
+      <c r="F21" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="31" t="s">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31" t="s">
+      <c r="C22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="34" t="s">
+      <c r="F22" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="26" t="s">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26" t="s">
+      <c r="C23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="29" t="s">
+      <c r="F23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="26" t="s">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26" t="s">
+      <c r="C24" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="29" t="s">
+      <c r="F24" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="26" t="s">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26" t="s">
+      <c r="C25" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="29" t="s">
+      <c r="F25" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="26" t="s">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26" t="s">
+      <c r="C26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="s">
+      <c r="F26" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="26" t="s">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26" t="s">
+      <c r="C27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="s">
+      <c r="F27" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="26" t="s">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="26" t="s">
+      <c r="C28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="s">
+      <c r="F28" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="26" t="s">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="26" t="s">
+      <c r="C29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="s">
+      <c r="F29" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="26" t="s">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="26" t="s">
+      <c r="C30" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="s">
+      <c r="F30" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="26" t="s">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="26" t="s">
+      <c r="C31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="s">
+      <c r="F31" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="11"/>
     </row>
@@ -1930,7 +1948,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
@@ -1943,7 +1961,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="13"/>
       <c r="G35" s="11"/>
     </row>
@@ -1952,7 +1970,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="11"/>
     </row>
@@ -1961,7 +1979,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="13"/>
       <c r="G37" s="11"/>
     </row>
@@ -1970,7 +1988,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="13"/>
       <c r="G38" s="11"/>
     </row>
@@ -1979,7 +1997,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="13"/>
       <c r="G39" s="11"/>
     </row>
@@ -1997,7 +2015,7 @@
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="13"/>
       <c r="G41" s="11"/>
     </row>
@@ -2011,15 +2029,24 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E44:F65541 B5">
+  <conditionalFormatting sqref="E45:F65542 B5">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>

--- a/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
+++ b/trunk/3. Requirement/AS_RE_RequirementTraceabilityMatrix.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>Functional Requirement</t>
   </si>
@@ -216,6 +216,84 @@
   </si>
   <si>
     <t>Post newsletter</t>
+  </si>
+  <si>
+    <t>UC.01.01</t>
+  </si>
+  <si>
+    <t>UC.01.02</t>
+  </si>
+  <si>
+    <t>UC.01.03</t>
+  </si>
+  <si>
+    <t>UC.01.04</t>
+  </si>
+  <si>
+    <t>UC.01.05</t>
+  </si>
+  <si>
+    <t>UC.01.06</t>
+  </si>
+  <si>
+    <t>UC.01.07</t>
+  </si>
+  <si>
+    <t>UC.01.08</t>
+  </si>
+  <si>
+    <t>UC.01.09</t>
+  </si>
+  <si>
+    <t>UC.01.10</t>
+  </si>
+  <si>
+    <t>UC.01.11</t>
+  </si>
+  <si>
+    <t>UC.01.12</t>
+  </si>
+  <si>
+    <t>UC.02.01</t>
+  </si>
+  <si>
+    <t>UC.02.02</t>
+  </si>
+  <si>
+    <t>UC.02.03</t>
+  </si>
+  <si>
+    <t>UC.02.04</t>
+  </si>
+  <si>
+    <t>UC.02.05</t>
+  </si>
+  <si>
+    <t>UC.03.01</t>
+  </si>
+  <si>
+    <t>UC.03.02</t>
+  </si>
+  <si>
+    <t>UC.03.03</t>
+  </si>
+  <si>
+    <t>UC.03.04</t>
+  </si>
+  <si>
+    <t>UC.03.05</t>
+  </si>
+  <si>
+    <t>UC.03.06</t>
+  </si>
+  <si>
+    <t>UC.03.07</t>
+  </si>
+  <si>
+    <t>UC.03.08</t>
+  </si>
+  <si>
+    <t>UC.03.09</t>
   </si>
 </sst>
 </file>
@@ -225,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,11 +357,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -300,12 +373,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -364,11 +437,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,9 +527,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -443,34 +539,43 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +926,7 @@
     <col min="3" max="3" width="35.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="22" style="4" customWidth="1"/>
     <col min="8" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="15.5703125" style="1" customWidth="1"/>
@@ -1331,33 +1436,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
@@ -1384,359 +1489,393 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="23" t="s">
+      <c r="F15" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="29"/>
+      <c r="C18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="E18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="33" t="s">
+      <c r="F18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="29"/>
+      <c r="C19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="E19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="29"/>
+      <c r="C20" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="E20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="29"/>
+      <c r="C21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="E21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="29"/>
+      <c r="C22" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="E22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1744,20 +1883,22 @@
       <c r="A23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25" t="s">
+      <c r="C23" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="28" t="s">
+      <c r="F23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1765,20 +1906,22 @@
       <c r="A24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25" t="s">
+      <c r="C24" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="28" t="s">
+      <c r="F24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1786,20 +1929,22 @@
       <c r="A25" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25" t="s">
+      <c r="C25" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="28" t="s">
+      <c r="F25" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1807,20 +1952,22 @@
       <c r="A26" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25" t="s">
+      <c r="C26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="28" t="s">
+      <c r="F26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1828,20 +1975,22 @@
       <c r="A27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25" t="s">
+      <c r="C27" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="28" t="s">
+      <c r="F27" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1849,20 +1998,22 @@
       <c r="A28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="25" t="s">
+      <c r="C28" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="28" t="s">
+      <c r="F28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1870,20 +2021,22 @@
       <c r="A29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="25" t="s">
+      <c r="C29" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="28" t="s">
+      <c r="F29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1891,20 +2044,22 @@
       <c r="A30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="25" t="s">
+      <c r="C30" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="28" t="s">
+      <c r="F30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1912,20 +2067,22 @@
       <c r="A31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="25" t="s">
+      <c r="C31" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="28" t="s">
+      <c r="F31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>35</v>
       </c>
     </row>
